--- a/Luyen thi vao 10/Điểm thi vào 10 các năm.xlsx
+++ b/Luyen thi vao 10/Điểm thi vào 10 các năm.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
   <si>
     <t>Chu Văn An</t>
   </si>
@@ -120,51 +120,18 @@
     <t>Đan Phượng</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thượng Cát</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hoài Đức A </t>
-  </si>
-  <si>
     <t xml:space="preserve">Trung Văn </t>
   </si>
   <si>
     <t>Hoài Đức B</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tần Lập</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Van Xuân - Hoài Đức</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hồng Thái </t>
-  </si>
-  <si>
     <t xml:space="preserve">Xuân Phương </t>
   </si>
   <si>
     <t>Đại Mỗ</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hoài Đức C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phố thông Dân tộc nội trú</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tùng Thiện</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sơn Tây</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quảng Oai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ngọc Tảo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Phúc Thọ </t>
   </si>
   <si>
@@ -174,54 +141,18 @@
     <t xml:space="preserve">Vân Cốc </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ngô Quyền - Ba Vì</t>
-  </si>
-  <si>
     <t>Xuân Khanh</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bất Bạt</t>
-  </si>
-  <si>
     <t>Minh Quang</t>
   </si>
   <si>
-    <t xml:space="preserve"> Quốc Oai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thạch Thất</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phùng Khắc Khoạn- Thạch Thât</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hai Bà Trưng - Thạch Thất</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Minh Khai </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cao Bá Quát - Quốc Oai </t>
   </si>
   <si>
     <t>Bắc Lương Sơn</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phan Huy Chú - Quôc Oai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lê Quý Đôn - Hà Đông</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quang Trung - Hà Đông</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lê Lợi - Hà Đông</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chương Mỹ A </t>
-  </si>
-  <si>
     <t xml:space="preserve">Thanh Oai A </t>
   </si>
   <si>
@@ -231,27 +162,15 @@
     <t>Nguyên Du - Thanh Oai</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trần Hưng Đạo - Hà Đông </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chúc Động </t>
   </si>
   <si>
     <t>Thanh Oai B</t>
   </si>
   <si>
-    <t xml:space="preserve"> Chương Mỹ B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phú Xuyên A </t>
-  </si>
-  <si>
     <t>Phú Xuyên B</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thường Tín </t>
-  </si>
-  <si>
     <t xml:space="preserve">Đông Quan </t>
   </si>
   <si>
@@ -330,21 +249,9 @@
     <t>40,5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 45,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49,5</t>
-  </si>
-  <si>
     <t>46,5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 42,5 </t>
-  </si>
-  <si>
     <t>43,5</t>
   </si>
   <si>
@@ -559,6 +466,93 @@
   </si>
   <si>
     <t>32,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngọc Tảo </t>
+  </si>
+  <si>
+    <t>Ngô Quyền - Ba Vì</t>
+  </si>
+  <si>
+    <t>Quảng Oai</t>
+  </si>
+  <si>
+    <t>Sơn Tây</t>
+  </si>
+  <si>
+    <t>Tùng Thiện</t>
+  </si>
+  <si>
+    <t>Phố thông Dân tộc nội trú</t>
+  </si>
+  <si>
+    <t>Hoài Đức C</t>
+  </si>
+  <si>
+    <t>Quốc Oai</t>
+  </si>
+  <si>
+    <t>Thạch Thất</t>
+  </si>
+  <si>
+    <t>Phùng Khắc Khoạn- Thạch Thât</t>
+  </si>
+  <si>
+    <t>Hai Bà Trưng - Thạch Thất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minh Khai </t>
+  </si>
+  <si>
+    <t>49,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,5 </t>
+  </si>
+  <si>
+    <t>Thượng Cát</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoài Đức A </t>
+  </si>
+  <si>
+    <t>Tần Lập</t>
+  </si>
+  <si>
+    <t>Van Xuân - Hoài Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồng Thái </t>
+  </si>
+  <si>
+    <t>Bất Bạt</t>
+  </si>
+  <si>
+    <t>Phan Huy Chú - Quôc Oai</t>
+  </si>
+  <si>
+    <t>Lê Quý Đôn - Hà Đông</t>
+  </si>
+  <si>
+    <t>Quang Trung - Hà Đông</t>
+  </si>
+  <si>
+    <t>Lê Lợi - Hà Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chương Mỹ A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Hưng Đạo - Hà Đông </t>
+  </si>
+  <si>
+    <t>Chương Mỹ B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phú Xuyên A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thường Tín </t>
   </si>
 </sst>
 </file>
@@ -913,14 +907,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -1575,7 +1569,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C26" s="5">
         <v>49</v>
@@ -1584,10 +1578,10 @@
         <v>42</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="G26" s="4">
         <v>37</v>
@@ -1601,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C27" s="5">
         <v>49</v>
@@ -1610,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="F27" s="4">
         <v>47</v>
@@ -1636,7 +1630,7 @@
         <v>40.5</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="H28" s="4">
         <v>29.25</v>
@@ -1647,14 +1641,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="H29" s="4">
         <v>25</v>
@@ -1665,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C30" s="5">
         <v>47</v>
@@ -1680,10 +1674,10 @@
         <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1691,10 +1685,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D31" s="4">
         <v>43</v>
@@ -1703,10 +1697,10 @@
         <v>42.5</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="H31" s="4">
         <v>31.75</v>
@@ -1717,16 +1711,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F32" s="4">
         <v>42</v>
@@ -1743,7 +1737,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C33" s="5">
         <v>45</v>
@@ -1752,10 +1746,10 @@
         <v>44</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G33" s="4">
         <v>37.25</v>
@@ -1769,7 +1763,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C34" s="5">
         <v>43</v>
@@ -1781,13 +1775,13 @@
         <v>43</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1795,16 +1789,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="F35" s="4">
         <v>47</v>
@@ -1821,7 +1815,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C36" s="5">
         <v>44</v>
@@ -1830,7 +1824,7 @@
         <v>45.5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F36" s="4">
         <v>43</v>
@@ -1853,19 +1847,19 @@
         <v>46.5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1873,22 +1867,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C38" s="5">
         <v>45</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E38" s="4">
         <v>45</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="H38" s="4">
         <v>29</v>
@@ -1899,7 +1893,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C39" s="5">
         <v>47</v>
@@ -1911,13 +1905,13 @@
         <v>48</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G39" s="4">
         <v>36</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1925,7 +1919,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C40" s="5">
         <v>42</v>
@@ -1951,13 +1945,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E41" s="4">
         <v>45</v>
@@ -1969,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1977,19 +1971,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E42" s="4">
         <v>42</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G42" s="4">
         <v>35</v>
@@ -2003,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C43" s="5">
         <v>40</v>
@@ -2012,7 +2006,7 @@
         <v>36</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="F43" s="4">
         <v>39</v>
@@ -2029,7 +2023,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5">
         <v>39</v>
@@ -2041,13 +2035,13 @@
         <v>39</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2058,7 +2052,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D45" s="4">
         <v>40</v>
@@ -2070,7 +2064,7 @@
         <v>37.5</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="H45" s="4">
         <v>29</v>
@@ -2081,22 +2075,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5">
         <v>42.5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F46" s="4">
         <v>37.5</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="H46" s="4">
         <v>27.5</v>
@@ -2107,16 +2101,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C47" s="5">
         <v>40</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F47" s="4">
         <v>38</v>
@@ -2133,13 +2127,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E48" s="4">
         <v>35.5</v>
@@ -2159,19 +2153,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="G49" s="4">
         <v>27.5</v>
@@ -2185,7 +2179,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C50" s="5">
         <v>32.5</v>
@@ -2197,10 +2191,10 @@
         <v>28.5</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="H50" s="4">
         <v>21</v>
@@ -2246,16 +2240,16 @@
         <v>51.5</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="F52" s="4">
         <v>50</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2301,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="H54" s="4">
         <v>30</v>
@@ -2315,10 +2309,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D55" s="4">
         <v>44</v>
@@ -2341,7 +2335,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="C56" s="5">
         <v>47</v>
@@ -2367,7 +2361,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57" s="5">
         <v>42</v>
@@ -2376,7 +2370,7 @@
         <v>45</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F57" s="4">
         <v>41.5</v>
@@ -2393,13 +2387,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" s="5">
         <v>41</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E58" s="4">
         <v>42.5</v>
@@ -2419,7 +2413,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="C59" s="5">
         <v>39.5</v>
@@ -2445,7 +2439,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="C60" s="5">
         <v>41</v>
@@ -2454,13 +2448,13 @@
         <v>40.5</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F60" s="4">
         <v>40</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="H60" s="4">
         <v>27.5</v>
@@ -2471,7 +2465,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="C61" s="5">
         <v>39</v>
@@ -2486,7 +2480,7 @@
         <v>38.5</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="H61" s="4">
         <v>25.5</v>
@@ -2497,7 +2491,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="4"/>
@@ -2517,13 +2511,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C63" s="5">
         <v>38.5</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E63" s="4">
         <v>40.5</v>
@@ -2543,14 +2537,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="H64" s="4">
         <v>24.25</v>
@@ -2561,7 +2555,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="4"/>
@@ -2572,7 +2566,7 @@
         <v>43</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="H65" s="4">
         <v>31</v>
@@ -2583,7 +2577,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="C66" s="5">
         <v>43.5</v>
@@ -2596,10 +2590,10 @@
         <v>42.5</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2607,16 +2601,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="F67" s="4">
         <v>47</v>
@@ -2625,7 +2619,7 @@
         <v>42</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2633,13 +2627,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C68" s="4">
         <v>37</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E68" s="4">
         <v>37</v>
@@ -2659,13 +2653,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C69" s="4">
         <v>34.5</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E69" s="4">
         <v>35.5</v>
@@ -2685,13 +2679,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C70" s="4">
         <v>40.5</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E70" s="4">
         <v>41.5</v>
@@ -2700,7 +2694,7 @@
         <v>39</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="H70" s="4">
         <v>26.25</v>
@@ -2711,7 +2705,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C71" s="4">
         <v>39</v>
@@ -2726,7 +2720,7 @@
         <v>36</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="H71" s="4">
         <v>24.5</v>
@@ -2737,7 +2731,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C72" s="4">
         <v>30.5</v>
@@ -2763,7 +2757,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C73" s="4">
         <v>35.5</v>
@@ -2789,7 +2783,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C74" s="4">
         <v>25</v>
@@ -2798,7 +2792,7 @@
         <v>28</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F74" s="4">
         <v>28.5</v>
@@ -2815,10 +2809,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D75" s="6">
         <v>25</v>
@@ -2841,7 +2835,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C76" s="4">
         <v>23</v>
@@ -2867,7 +2861,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="C77" s="4">
         <v>47</v>
@@ -2879,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="G77" s="4">
         <v>39</v>
@@ -2893,7 +2887,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="C78" s="4">
         <v>44</v>
@@ -2911,7 +2905,7 @@
         <v>33</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2919,10 +2913,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D79" s="6">
         <v>41</v>
@@ -2945,7 +2939,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="C80" s="4">
         <v>39</v>
@@ -2971,7 +2965,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4">
         <v>3</v>
@@ -2989,7 +2983,7 @@
         <v>26.25</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,7 +2991,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C82" s="4">
         <v>38</v>
@@ -3012,10 +3006,10 @@
         <v>38</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3023,7 +3017,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C83" s="4">
         <v>34</v>
@@ -3049,7 +3043,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3058,7 +3052,7 @@
         <v>33</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="H84" s="4">
         <v>23.5</v>
@@ -3069,19 +3063,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D85" s="6">
         <v>51</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="G85" s="4">
         <v>45.25</v>
@@ -3095,16 +3089,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D86" s="6">
         <v>48</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="F86" s="4">
         <v>47.5</v>
@@ -3113,7 +3107,7 @@
         <v>42</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3121,7 +3115,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C87" s="4">
         <v>43.5</v>
@@ -3139,7 +3133,7 @@
         <v>33</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3147,16 +3141,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D88" s="6">
         <v>45</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F88" s="4">
         <v>44</v>
@@ -3165,7 +3159,7 @@
         <v>35.25</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3173,7 +3167,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C89" s="4">
         <v>39</v>
@@ -3191,7 +3185,7 @@
         <v>29.5</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3199,7 +3193,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C90" s="4">
         <v>40</v>
@@ -3225,10 +3219,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D91" s="6">
         <v>38</v>
@@ -3251,7 +3245,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="C92" s="4">
         <v>39</v>
@@ -3277,7 +3271,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C93" s="4">
         <v>34.5</v>
@@ -3303,13 +3297,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C94" s="4">
         <v>44</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E94" s="4">
         <v>40</v>
@@ -3329,19 +3323,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C95" s="4">
         <v>29</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E95" s="4">
         <v>33</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G95" s="4">
         <v>22</v>
@@ -3355,25 +3349,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D96" s="6">
         <v>34.5</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3381,13 +3375,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C97" s="4">
         <v>33</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E97" s="4">
         <v>31</v>
@@ -3396,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="H97" s="4">
         <v>21</v>
@@ -3407,16 +3401,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D98" s="6">
         <v>46</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F98" s="4">
         <v>43</v>
@@ -3433,10 +3427,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D99" s="6">
         <v>37</v>
@@ -3448,10 +3442,10 @@
         <v>42</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3459,13 +3453,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C100" s="4">
         <v>34</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E100" s="4">
         <v>37</v>
@@ -3485,16 +3479,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D101" s="4">
         <v>34</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F101" s="4">
         <v>35</v>
@@ -3511,19 +3505,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E102" s="4">
         <v>30</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G102" s="4">
         <v>22</v>
@@ -3537,25 +3531,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C103" s="4">
         <v>36</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E103" s="4">
         <v>37</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3563,25 +3557,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D104" s="4">
         <v>32</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3589,22 +3583,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D105" s="4">
         <v>45</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F105" s="4">
         <v>41</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="H105" s="4">
         <v>31</v>
@@ -3615,25 +3609,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C106" s="4">
         <v>38</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E106" s="4">
         <v>34</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G106" s="4">
         <v>24</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3641,25 +3635,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E107" s="4">
         <v>34</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3667,19 +3661,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E108" s="4">
         <v>22</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G108" s="4">
         <v>21</v>
@@ -3693,7 +3687,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C109" s="4">
         <v>24</v>
@@ -3705,7 +3699,7 @@
         <v>22</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G109" s="4">
         <v>15</v>
@@ -3719,13 +3713,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C110" s="4">
         <v>30</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E110" s="4">
         <v>30</v>
@@ -3734,10 +3728,10 @@
         <v>33</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3745,22 +3739,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C111" s="4">
         <v>27</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E111" s="4">
         <v>26</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="H111" s="4">
         <v>19</v>
@@ -3771,7 +3765,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C112" s="4">
         <v>22</v>
@@ -3783,7 +3777,7 @@
         <v>22</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G112" s="4">
         <v>16</v>
@@ -3797,7 +3791,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C113" s="4">
         <v>22</v>
@@ -3815,7 +3809,7 @@
         <v>15</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3823,7 +3817,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -3852,12 +3846,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -3877,12 +3871,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3937,7 +3931,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -3947,7 +3941,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -4007,12 +4001,12 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -4022,7 +4016,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
